--- a/view/Asistencias/Belman_Arias_Paloma_Del_Auxilio.xlsx
+++ b/view/Asistencias/Belman_Arias_Paloma_Del_Auxilio.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Reporte de Abril" sheetId="1" r:id="rId4"/>
+    <sheet name="Reporte de Marzo" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>Belman Arias Paloma Del Auxilio</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Reporte de Asistencias IN Consulting</t>
   </si>
   <si>
-    <t>01/Abril/2024</t>
+    <t>01/Marzo/2024</t>
   </si>
   <si>
     <t>RFC: BEAP9905207Z1</t>
@@ -44,7 +44,7 @@
     <t>Departamento: CONTABILIDAD</t>
   </si>
   <si>
-    <t>Abril</t>
+    <t>Marzo</t>
   </si>
   <si>
     <t>Horas esperadas (2da quincena)</t>
@@ -89,100 +89,94 @@
     <t>* Ausencias y festivos</t>
   </si>
   <si>
-    <t>08:45:00 - 14:00:00</t>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>10h 0min</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>09:00:00 - 14:00:00</t>
   </si>
   <si>
     <t>16:00:00 - 19:00:00</t>
   </si>
   <si>
-    <t>2h 15min</t>
-  </si>
-  <si>
-    <t>10h 0min</t>
+    <t>2h 0min</t>
+  </si>
+  <si>
+    <t>Sá</t>
+  </si>
+  <si>
+    <t>02/03/2024</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>03/03/2024</t>
+  </si>
+  <si>
+    <t>10:00:00 - 15:00:00</t>
   </si>
   <si>
     <t>Lu</t>
   </si>
   <si>
-    <t>01/04/2024</t>
-  </si>
-  <si>
-    <t>09:00:00 - 14:00:00</t>
-  </si>
-  <si>
-    <t>2h 0min</t>
+    <t>04/03/2024</t>
+  </si>
+  <si>
+    <t>09:59:00 - 15:00:00</t>
+  </si>
+  <si>
+    <t>2h 1min</t>
   </si>
   <si>
     <t>Ma</t>
   </si>
   <si>
-    <t>02/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
+    <t>05/03/2024</t>
+  </si>
+  <si>
+    <t>09:55:00 - 15:00:00</t>
+  </si>
+  <si>
+    <t>15:58:00 - 19:00:00</t>
+  </si>
+  <si>
+    <t>2h 3min</t>
   </si>
   <si>
     <t>Mi</t>
   </si>
   <si>
-    <t>03/04/2024</t>
-  </si>
-  <si>
-    <t>10:00:00 - 15:00:00</t>
+    <t>06/03/2024</t>
   </si>
   <si>
     <t>Ju</t>
   </si>
   <si>
-    <t>04/04/2024</t>
-  </si>
-  <si>
-    <t>09:59:00 - 15:00:00</t>
-  </si>
-  <si>
-    <t>2h 1min</t>
-  </si>
-  <si>
-    <t>Vi</t>
-  </si>
-  <si>
-    <t>05/04/2024</t>
-  </si>
-  <si>
-    <t>09:55:00 - 15:00:00</t>
-  </si>
-  <si>
-    <t>15:58:00 - 19:00:00</t>
-  </si>
-  <si>
-    <t>2h 3min</t>
-  </si>
-  <si>
-    <t>Sá</t>
-  </si>
-  <si>
-    <t>06/04/2024</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <t>07/04/2024</t>
-  </si>
-  <si>
-    <t>08/04/2024</t>
-  </si>
-  <si>
-    <t>09/04/2024</t>
-  </si>
-  <si>
-    <t>10/04/2024</t>
+    <t>07/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>09/03/2024</t>
+  </si>
+  <si>
+    <t>10/03/2024</t>
   </si>
   <si>
     <t>15:00:00 - 18:00:00</t>
   </si>
   <si>
-    <t>11/04/2024</t>
+    <t>11/03/2024</t>
   </si>
   <si>
     <t>08:40:00 - 14:00:00</t>
@@ -191,13 +185,13 @@
     <t>2h 20min</t>
   </si>
   <si>
-    <t>12/04/2024</t>
+    <t>12/03/2024</t>
   </si>
   <si>
     <t>08:57:00 - 14:00:00</t>
   </si>
   <si>
-    <t>13/04/2024</t>
+    <t>13/03/2024</t>
   </si>
   <si>
     <t>09:00:00 - 12:00:00</t>
@@ -206,7 +200,7 @@
     <t>0h 0min</t>
   </si>
   <si>
-    <t>14/04/2024</t>
+    <t>14/03/2024</t>
   </si>
   <si>
     <t>09:04:00 - 14:00:00</t>
@@ -215,16 +209,16 @@
     <t>1h 56min</t>
   </si>
   <si>
-    <t>15/04/2024</t>
-  </si>
-  <si>
-    <t>16/04/2024</t>
-  </si>
-  <si>
-    <t>17/04/2024</t>
-  </si>
-  <si>
-    <t>18/04/2024</t>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>16/03/2024</t>
+  </si>
+  <si>
+    <t>17/03/2024</t>
+  </si>
+  <si>
+    <t>18/03/2024</t>
   </si>
   <si>
     <t>08:46:00 - 14:00:00</t>
@@ -233,7 +227,7 @@
     <t>2h 14min</t>
   </si>
   <si>
-    <t>19/04/2024</t>
+    <t>19/03/2024</t>
   </si>
   <si>
     <t>11:00:00 - 15:00:00</t>
@@ -242,7 +236,7 @@
     <t>1h 0min</t>
   </si>
   <si>
-    <t>20/04/2024</t>
+    <t>20/03/2024</t>
   </si>
   <si>
     <t>08:58:00 - 15:00:00</t>
@@ -251,13 +245,13 @@
     <t>3h 2min</t>
   </si>
   <si>
-    <t>21/04/2024</t>
+    <t>21/03/2024</t>
   </si>
   <si>
     <t>10:00:00 - 14:00:00</t>
   </si>
   <si>
-    <t>22/04/2024</t>
+    <t>22/03/2024</t>
   </si>
   <si>
     <t>08:58:00 - 14:00:00</t>
@@ -266,31 +260,34 @@
     <t>2h 2min</t>
   </si>
   <si>
-    <t>23/04/2024</t>
-  </si>
-  <si>
-    <t>24/04/2024</t>
-  </si>
-  <si>
-    <t>25/04/2024</t>
-  </si>
-  <si>
-    <t>26/04/2024</t>
+    <t>23/03/2024</t>
+  </si>
+  <si>
+    <t>24/03/2024</t>
+  </si>
+  <si>
+    <t>25/03/2024</t>
+  </si>
+  <si>
+    <t>26/03/2024</t>
   </si>
   <si>
     <t>15:00:00 - 19:00:00</t>
   </si>
   <si>
-    <t>27/04/2024</t>
-  </si>
-  <si>
-    <t>28/04/2024</t>
-  </si>
-  <si>
-    <t>29/04/2024</t>
-  </si>
-  <si>
-    <t>30/04/2024</t>
+    <t>27/03/2024</t>
+  </si>
+  <si>
+    <t>28/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>30/03/2024</t>
+  </si>
+  <si>
+    <t>31/03/2024</t>
   </si>
 </sst>
 </file>
@@ -771,10 +768,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B39" sqref="B39:L39"/>
+      <selection activeCell="B42" sqref="B42:L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -923,86 +920,86 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="J12"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
         <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14"/>
+      <c r="D14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1010,22 +1007,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -1033,70 +1030,68 @@
     </row>
     <row r="17" spans="1:12">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
         <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="B18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1104,63 +1099,68 @@
     </row>
     <row r="20" spans="1:12">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
         <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" t="s">
-        <v>31</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21"/>
+      <c r="B21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
         <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" t="s">
-        <v>31</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -1168,22 +1168,22 @@
     </row>
     <row r="23" spans="1:12">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1191,72 +1191,70 @@
     </row>
     <row r="24" spans="1:12">
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="B25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12">
       <c r="B26" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -1264,63 +1262,68 @@
     </row>
     <row r="27" spans="1:12">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
         <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" t="s">
-        <v>31</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28"/>
+      <c r="B28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12">
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1328,22 +1331,22 @@
     </row>
     <row r="30" spans="1:12">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -1351,70 +1354,68 @@
     </row>
     <row r="31" spans="1:12">
       <c r="B31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="B32" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12">
       <c r="B33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -1422,63 +1423,68 @@
     </row>
     <row r="34" spans="1:12">
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35"/>
+      <c r="B35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
         <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" t="s">
-        <v>31</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -1486,22 +1492,22 @@
     </row>
     <row r="37" spans="1:12">
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -1509,85 +1515,103 @@
     </row>
     <row r="38" spans="1:12">
       <c r="B38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="B39" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39"/>
     </row>
     <row r="40" spans="1:12">
       <c r="B40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J40"/>
     </row>
     <row r="41" spans="1:12">
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J41"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1616,9 +1640,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="J15:L15"/>
@@ -1628,15 +1649,15 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="J22:L22"/>
@@ -1646,15 +1667,15 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:L25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="J27:L27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="J28:L28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="J29:L29"/>
@@ -1664,15 +1685,15 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="J31:L31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="J32:L32"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="J34:L34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="J35:L35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="J36:L36"/>
@@ -1682,6 +1703,9 @@
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="J38:L38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:L39"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="J40:L40"/>
